--- a/Reportes/Base_Carga_RGUs.xlsx
+++ b/Reportes/Base_Carga_RGUs.xlsx
@@ -5,16 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian Rios Ferrer\Documents\Programación\Tigo\Tigo Despacho\Reporteria-Tigo-Wpp\Reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian Rios Ferrer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578DC196-B503-4B5E-9918-55585091DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937649D-1968-4770-AE73-65B0657B2EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04C3C4EA-FE1D-44D3-87BD-F65A63AB1F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,13 +30,32 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -273,16 +296,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -308,6 +331,4544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Proyección Direccion"/>
+      <sheetName val="Analisis"/>
+      <sheetName val="Hist Proy"/>
+      <sheetName val="Proyeccion"/>
+      <sheetName val="Graficas"/>
+      <sheetName val="Resumen Proy"/>
+      <sheetName val="Resumen Proy GPON"/>
+      <sheetName val="Resumen Proy HFC"/>
+      <sheetName val="TD"/>
+      <sheetName val="Tabla_Requinte_Hoy"/>
+      <sheetName val="Query ProyRequinte_Hoy"/>
+      <sheetName val="Query"/>
+      <sheetName val="Query Proyeccion"/>
+      <sheetName val="BD_Proyeccion"/>
+      <sheetName val="Resumen ProyRequinte"/>
+      <sheetName val="Query ProyRequinte"/>
+      <sheetName val="BD"/>
+      <sheetName val="DB_VentaInstale"/>
+      <sheetName val="Parametrización"/>
+      <sheetName val="Listas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="J5" t="str">
+            <v>Antioquia Centro</v>
+          </cell>
+          <cell r="K5">
+            <v>42.557898227992041</v>
+          </cell>
+          <cell r="L5">
+            <v>407.06534137064295</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6" t="str">
+            <v>Antioquia Norte</v>
+          </cell>
+          <cell r="K6">
+            <v>50.982430756510951</v>
+          </cell>
+          <cell r="L6">
+            <v>496.60832955551012</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7" t="str">
+            <v>Antioquia Oriente</v>
+          </cell>
+          <cell r="K7">
+            <v>92.477657004830917</v>
+          </cell>
+          <cell r="L7">
+            <v>58.455532994923857</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8" t="str">
+            <v>Antioquia Sur</v>
+          </cell>
+          <cell r="K8">
+            <v>48.70109819121447</v>
+          </cell>
+          <cell r="L8">
+            <v>313.9543593322864</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9" t="str">
+            <v>Antioquia_Edatel</v>
+          </cell>
+          <cell r="K9">
+            <v>8.8956714761376254</v>
+          </cell>
+          <cell r="L9">
+            <v>117.85182431882217</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10" t="str">
+            <v>Atlantico</v>
+          </cell>
+          <cell r="K10">
+            <v>23.561643835616437</v>
+          </cell>
+          <cell r="L10">
+            <v>344.99654576856648</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11" t="str">
+            <v>Bogota</v>
+          </cell>
+          <cell r="K11">
+            <v>33.045871559633028</v>
+          </cell>
+          <cell r="L11">
+            <v>516.92261457550717</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12" t="str">
+            <v>Bolivar</v>
+          </cell>
+          <cell r="K12">
+            <v>30.097345132743364</v>
+          </cell>
+          <cell r="L12">
+            <v>276.50280898876406</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13" t="str">
+            <v>Bolivar_Edatel</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14" t="str">
+            <v>Boyaca</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>50.109090909090909</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15" t="str">
+            <v>Boyaca_Edatel</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16" t="str">
+            <v>Caldas</v>
+          </cell>
+          <cell r="K16">
+            <v>1</v>
+          </cell>
+          <cell r="L16">
+            <v>153.11904761904762</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17" t="str">
+            <v>Cauca</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>49.638554216867469</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18" t="str">
+            <v>Cesar</v>
+          </cell>
+          <cell r="K18">
+            <v>1</v>
+          </cell>
+          <cell r="L18">
+            <v>125.72435897435898</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19" t="str">
+            <v>Cesar_Edatel</v>
+          </cell>
+          <cell r="K19">
+            <v>5</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20" t="str">
+            <v>Cordoba</v>
+          </cell>
+          <cell r="K20">
+            <v>16</v>
+          </cell>
+          <cell r="L20">
+            <v>123.26315789473685</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21" t="str">
+            <v>Cordoba_Edatel</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22" t="str">
+            <v>Cundinamarca</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>80.157480314960637</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23" t="str">
+            <v>Guajira</v>
+          </cell>
+          <cell r="K23">
+            <v>22.5</v>
+          </cell>
+          <cell r="L23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24" t="str">
+            <v>Magdalena</v>
+          </cell>
+          <cell r="K24">
+            <v>3</v>
+          </cell>
+          <cell r="L24">
+            <v>94.8</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25" t="str">
+            <v>Meta</v>
+          </cell>
+          <cell r="K25">
+            <v>10.90909090909091</v>
+          </cell>
+          <cell r="L25">
+            <v>59.888888888888886</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26" t="str">
+            <v>Nariño</v>
+          </cell>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27" t="str">
+            <v>Norte de Santander</v>
+          </cell>
+          <cell r="K27">
+            <v>19.886792452830189</v>
+          </cell>
+          <cell r="L27">
+            <v>65.43150684931507</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28" t="str">
+            <v>Quindio</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>115.85148514851485</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29" t="str">
+            <v>Risaralda</v>
+          </cell>
+          <cell r="K29">
+            <v>17</v>
+          </cell>
+          <cell r="L29">
+            <v>194.901185770751</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30" t="str">
+            <v>Santander</v>
+          </cell>
+          <cell r="K30">
+            <v>10</v>
+          </cell>
+          <cell r="L30">
+            <v>306.71748878923768</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31" t="str">
+            <v>Santander_Edatel</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32" t="str">
+            <v>Sucre</v>
+          </cell>
+          <cell r="K32">
+            <v>5.25</v>
+          </cell>
+          <cell r="L32">
+            <v>106.13777777777779</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33" t="str">
+            <v>Sucre_Edatel</v>
+          </cell>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34" t="str">
+            <v>Tolima</v>
+          </cell>
+          <cell r="K34">
+            <v>31</v>
+          </cell>
+          <cell r="L34">
+            <v>52.633802816901408</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35" t="str">
+            <v>Valle</v>
+          </cell>
+          <cell r="K35">
+            <v>8.25</v>
+          </cell>
+          <cell r="L35">
+            <v>325.01438848920861</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36" t="str">
+            <v>Valle Quindío</v>
+          </cell>
+          <cell r="K36">
+            <v>0</v>
+          </cell>
+          <cell r="L36">
+            <v>71.593220338983045</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37" t="str">
+            <v>Total general</v>
+          </cell>
+          <cell r="K37">
+            <v>481.11549954660001</v>
+          </cell>
+          <cell r="L37">
+            <v>4539.3387917036634</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Etiquetas de fila</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Suma de RGU</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Proy Dia</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Proyeccion</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Antioquia Centro</v>
+          </cell>
+          <cell r="B70">
+            <v>50</v>
+          </cell>
+          <cell r="C70">
+            <v>23</v>
+          </cell>
+          <cell r="D70">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Antioquia Norte</v>
+          </cell>
+          <cell r="B71">
+            <v>12</v>
+          </cell>
+          <cell r="C71">
+            <v>7</v>
+          </cell>
+          <cell r="D71">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Antioquia Oriente</v>
+          </cell>
+          <cell r="B72">
+            <v>21</v>
+          </cell>
+          <cell r="C72">
+            <v>6</v>
+          </cell>
+          <cell r="D72">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Antioquia Sur</v>
+          </cell>
+          <cell r="B73">
+            <v>35</v>
+          </cell>
+          <cell r="C73">
+            <v>17</v>
+          </cell>
+          <cell r="D73">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Antioquia_Edatel</v>
+          </cell>
+          <cell r="B74">
+            <v>3</v>
+          </cell>
+          <cell r="C74">
+            <v>0</v>
+          </cell>
+          <cell r="D74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Atlantico</v>
+          </cell>
+          <cell r="B75">
+            <v>16</v>
+          </cell>
+          <cell r="C75">
+            <v>9</v>
+          </cell>
+          <cell r="D75">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Bogota</v>
+          </cell>
+          <cell r="B76">
+            <v>42</v>
+          </cell>
+          <cell r="C76">
+            <v>14</v>
+          </cell>
+          <cell r="D76">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Bolivar</v>
+          </cell>
+          <cell r="B77">
+            <v>10</v>
+          </cell>
+          <cell r="C77">
+            <v>6</v>
+          </cell>
+          <cell r="D77">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Boyaca</v>
+          </cell>
+          <cell r="B78">
+            <v>2</v>
+          </cell>
+          <cell r="C78">
+            <v>1</v>
+          </cell>
+          <cell r="D78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Boyaca_Edatel</v>
+          </cell>
+          <cell r="B79">
+            <v>1</v>
+          </cell>
+          <cell r="C79">
+            <v>1</v>
+          </cell>
+          <cell r="D79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Caldas</v>
+          </cell>
+          <cell r="B80">
+            <v>5</v>
+          </cell>
+          <cell r="C80">
+            <v>4</v>
+          </cell>
+          <cell r="D80">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Cesar</v>
+          </cell>
+          <cell r="B81">
+            <v>2</v>
+          </cell>
+          <cell r="C81">
+            <v>1</v>
+          </cell>
+          <cell r="D81">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Magdalena</v>
+          </cell>
+          <cell r="B82">
+            <v>2</v>
+          </cell>
+          <cell r="C82">
+            <v>2</v>
+          </cell>
+          <cell r="D82">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Norte de Santander</v>
+          </cell>
+          <cell r="B83">
+            <v>9</v>
+          </cell>
+          <cell r="C83">
+            <v>4</v>
+          </cell>
+          <cell r="D83">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Quindio</v>
+          </cell>
+          <cell r="B84">
+            <v>6</v>
+          </cell>
+          <cell r="C84">
+            <v>3</v>
+          </cell>
+          <cell r="D84">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Risaralda</v>
+          </cell>
+          <cell r="B85">
+            <v>16</v>
+          </cell>
+          <cell r="C85">
+            <v>10</v>
+          </cell>
+          <cell r="D85">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Santander</v>
+          </cell>
+          <cell r="B86">
+            <v>7</v>
+          </cell>
+          <cell r="C86">
+            <v>5</v>
+          </cell>
+          <cell r="D86">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Valle</v>
+          </cell>
+          <cell r="B87">
+            <v>20</v>
+          </cell>
+          <cell r="C87">
+            <v>7</v>
+          </cell>
+          <cell r="D87">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Valle Quindío</v>
+          </cell>
+          <cell r="B88">
+            <v>2</v>
+          </cell>
+          <cell r="C88">
+            <v>1</v>
+          </cell>
+          <cell r="D88">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Total General</v>
+          </cell>
+          <cell r="B89">
+            <v>261</v>
+          </cell>
+          <cell r="C89">
+            <v>121</v>
+          </cell>
+          <cell r="D89">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>Regiones</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>Suma de RGU</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>Proy Dia</v>
+          </cell>
+          <cell r="D146" t="str">
+            <v>Proyeccion</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>Antioquia Centro</v>
+          </cell>
+          <cell r="B147">
+            <v>356</v>
+          </cell>
+          <cell r="C147">
+            <v>241.8254468980021</v>
+          </cell>
+          <cell r="D147">
+            <v>242</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>Antioquia Norte</v>
+          </cell>
+          <cell r="B148">
+            <v>380</v>
+          </cell>
+          <cell r="C148">
+            <v>278.99297423887589</v>
+          </cell>
+          <cell r="D148">
+            <v>279</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>Antioquia Oriente</v>
+          </cell>
+          <cell r="B149">
+            <v>48</v>
+          </cell>
+          <cell r="C149">
+            <v>33.742574257425744</v>
+          </cell>
+          <cell r="D149">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>Antioquia Sur</v>
+          </cell>
+          <cell r="B150">
+            <v>255</v>
+          </cell>
+          <cell r="C150">
+            <v>182.00129533678756</v>
+          </cell>
+          <cell r="D150">
+            <v>182</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>Antioquia_Edatel</v>
+          </cell>
+          <cell r="B151">
+            <v>50</v>
+          </cell>
+          <cell r="C151">
+            <v>34.895833333333329</v>
+          </cell>
+          <cell r="D151">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>Atlantico</v>
+          </cell>
+          <cell r="B152">
+            <v>90</v>
+          </cell>
+          <cell r="C152">
+            <v>64.188679245283012</v>
+          </cell>
+          <cell r="D152">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>Bogota</v>
+          </cell>
+          <cell r="B153">
+            <v>271</v>
+          </cell>
+          <cell r="C153">
+            <v>131.57246376811594</v>
+          </cell>
+          <cell r="D153">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>Bolivar</v>
+          </cell>
+          <cell r="B154">
+            <v>110</v>
+          </cell>
+          <cell r="C154">
+            <v>66.100917431192656</v>
+          </cell>
+          <cell r="D154">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>Boyaca</v>
+          </cell>
+          <cell r="B155">
+            <v>26</v>
+          </cell>
+          <cell r="C155">
+            <v>13</v>
+          </cell>
+          <cell r="D155">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>Boyaca_Edatel</v>
+          </cell>
+          <cell r="B156">
+            <v>4</v>
+          </cell>
+          <cell r="C156">
+            <v>2.1538461538461537</v>
+          </cell>
+          <cell r="D156">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>Caldas</v>
+          </cell>
+          <cell r="B157">
+            <v>117</v>
+          </cell>
+          <cell r="C157">
+            <v>80.888888888888886</v>
+          </cell>
+          <cell r="D157">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>Cauca</v>
+          </cell>
+          <cell r="B158">
+            <v>22</v>
+          </cell>
+          <cell r="C158">
+            <v>11.440000000000001</v>
+          </cell>
+          <cell r="D158">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>Cesar</v>
+          </cell>
+          <cell r="B159">
+            <v>23</v>
+          </cell>
+          <cell r="C159">
+            <v>16.140350877192983</v>
+          </cell>
+          <cell r="D159">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>Cesar_Edatel</v>
+          </cell>
+          <cell r="B160">
+            <v>9</v>
+          </cell>
+          <cell r="C160">
+            <v>6.75</v>
+          </cell>
+          <cell r="D160">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>Cordoba</v>
+          </cell>
+          <cell r="B161">
+            <v>11</v>
+          </cell>
+          <cell r="C161">
+            <v>8.0384615384615383</v>
+          </cell>
+          <cell r="D161">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>Cordoba_Edatel</v>
+          </cell>
+          <cell r="B162">
+            <v>2</v>
+          </cell>
+          <cell r="C162">
+            <v>1</v>
+          </cell>
+          <cell r="D162">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>Cundinamarca</v>
+          </cell>
+          <cell r="B163">
+            <v>26</v>
+          </cell>
+          <cell r="C163">
+            <v>16.177777777777777</v>
+          </cell>
+          <cell r="D163">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>Magdalena</v>
+          </cell>
+          <cell r="B164">
+            <v>14</v>
+          </cell>
+          <cell r="C164">
+            <v>6.6315789473684204</v>
+          </cell>
+          <cell r="D164">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>Meta</v>
+          </cell>
+          <cell r="B165">
+            <v>15</v>
+          </cell>
+          <cell r="C165">
+            <v>10.212765957446809</v>
+          </cell>
+          <cell r="D165">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>Nariño</v>
+          </cell>
+          <cell r="B166">
+            <v>2</v>
+          </cell>
+          <cell r="C166">
+            <v>1.2121212121212122</v>
+          </cell>
+          <cell r="D166">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>Norte de Santander</v>
+          </cell>
+          <cell r="B167">
+            <v>18</v>
+          </cell>
+          <cell r="C167">
+            <v>11.5</v>
+          </cell>
+          <cell r="D167">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>Quindio</v>
+          </cell>
+          <cell r="B168">
+            <v>61</v>
+          </cell>
+          <cell r="C168">
+            <v>39.906542056074763</v>
+          </cell>
+          <cell r="D168">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>Risaralda</v>
+          </cell>
+          <cell r="B169">
+            <v>136</v>
+          </cell>
+          <cell r="C169">
+            <v>98.788273615635177</v>
+          </cell>
+          <cell r="D169">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>Santander</v>
+          </cell>
+          <cell r="B170">
+            <v>153</v>
+          </cell>
+          <cell r="C170">
+            <v>92</v>
+          </cell>
+          <cell r="D170">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>Sucre</v>
+          </cell>
+          <cell r="B171">
+            <v>18</v>
+          </cell>
+          <cell r="C171">
+            <v>9.4090909090909083</v>
+          </cell>
+          <cell r="D171">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>Sucre_Edatel</v>
+          </cell>
+          <cell r="B172">
+            <v>1</v>
+          </cell>
+          <cell r="C172">
+            <v>0</v>
+          </cell>
+          <cell r="D172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>Tolima</v>
+          </cell>
+          <cell r="B173">
+            <v>43</v>
+          </cell>
+          <cell r="C173">
+            <v>27.074074074074076</v>
+          </cell>
+          <cell r="D173">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>Valle</v>
+          </cell>
+          <cell r="B174">
+            <v>128</v>
+          </cell>
+          <cell r="C174">
+            <v>73.317422434367543</v>
+          </cell>
+          <cell r="D174">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>Valle Quindío</v>
+          </cell>
+          <cell r="B175">
+            <v>41</v>
+          </cell>
+          <cell r="C175">
+            <v>29.974789915966383</v>
+          </cell>
+          <cell r="D175">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>Total general</v>
+          </cell>
+          <cell r="B176">
+            <v>2430</v>
+          </cell>
+          <cell r="C176">
+            <v>1588.9361688673289</v>
+          </cell>
+          <cell r="D176">
+            <v>1589</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Proyección Direccion"/>
+      <sheetName val="Analisis"/>
+      <sheetName val="Histori Proy"/>
+      <sheetName val="InformeXregion"/>
+      <sheetName val="Graficas"/>
+      <sheetName val="TBLINFRA"/>
+      <sheetName val="Query Proy"/>
+      <sheetName val="TD"/>
+      <sheetName val="Resumen Proy"/>
+      <sheetName val="Query"/>
+      <sheetName val="ESCALAR-INFRA"/>
+      <sheetName val="BD"/>
+      <sheetName val="BDINFRA"/>
+      <sheetName val="Dist x dia"/>
+      <sheetName val="Parametrización"/>
+      <sheetName val="Proyeccionfestivosmayo"/>
+      <sheetName val="Listas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Antioquia Centro</v>
+          </cell>
+          <cell r="C6">
+            <v>337</v>
+          </cell>
+          <cell r="D6">
+            <v>311</v>
+          </cell>
+          <cell r="E6">
+            <v>344</v>
+          </cell>
+          <cell r="F6">
+            <v>174</v>
+          </cell>
+          <cell r="G6">
+            <v>343</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+          <cell r="O6">
+            <v>0</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+          <cell r="T6">
+            <v>0</v>
+          </cell>
+          <cell r="U6">
+            <v>0</v>
+          </cell>
+          <cell r="V6">
+            <v>0</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+          <cell r="AA6">
+            <v>0</v>
+          </cell>
+          <cell r="AB6">
+            <v>0</v>
+          </cell>
+          <cell r="AC6">
+            <v>0</v>
+          </cell>
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+          <cell r="AF6">
+            <v>0</v>
+          </cell>
+          <cell r="AG6">
+            <v>0</v>
+          </cell>
+          <cell r="AH6">
+            <v>1509</v>
+          </cell>
+          <cell r="AI6">
+            <v>6327</v>
+          </cell>
+          <cell r="AJ6">
+            <v>333.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Antioquia Norte</v>
+          </cell>
+          <cell r="C7">
+            <v>369</v>
+          </cell>
+          <cell r="D7">
+            <v>383</v>
+          </cell>
+          <cell r="E7">
+            <v>423</v>
+          </cell>
+          <cell r="F7">
+            <v>166</v>
+          </cell>
+          <cell r="G7">
+            <v>325</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
+          <cell r="U7">
+            <v>0</v>
+          </cell>
+          <cell r="V7">
+            <v>0</v>
+          </cell>
+          <cell r="W7">
+            <v>0</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>0</v>
+          </cell>
+          <cell r="Z7">
+            <v>0</v>
+          </cell>
+          <cell r="AA7">
+            <v>0</v>
+          </cell>
+          <cell r="AB7">
+            <v>0</v>
+          </cell>
+          <cell r="AC7">
+            <v>0</v>
+          </cell>
+          <cell r="AD7">
+            <v>0</v>
+          </cell>
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AF7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7">
+            <v>0</v>
+          </cell>
+          <cell r="AH7">
+            <v>1666</v>
+          </cell>
+          <cell r="AJ7">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Antioquia Oriente</v>
+          </cell>
+          <cell r="C8">
+            <v>138</v>
+          </cell>
+          <cell r="D8">
+            <v>135</v>
+          </cell>
+          <cell r="E8">
+            <v>136</v>
+          </cell>
+          <cell r="F8">
+            <v>61</v>
+          </cell>
+          <cell r="G8">
+            <v>163</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>0</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
+          <cell r="U8">
+            <v>0</v>
+          </cell>
+          <cell r="V8">
+            <v>0</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>0</v>
+          </cell>
+          <cell r="AB8">
+            <v>0</v>
+          </cell>
+          <cell r="AC8">
+            <v>0</v>
+          </cell>
+          <cell r="AD8">
+            <v>0</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>0</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>633</v>
+          </cell>
+          <cell r="AJ8">
+            <v>143</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Antioquia Sur</v>
+          </cell>
+          <cell r="C9">
+            <v>290</v>
+          </cell>
+          <cell r="D9">
+            <v>301</v>
+          </cell>
+          <cell r="E9">
+            <v>378</v>
+          </cell>
+          <cell r="F9">
+            <v>164</v>
+          </cell>
+          <cell r="G9">
+            <v>286</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="N9">
+            <v>0</v>
+          </cell>
+          <cell r="O9">
+            <v>0</v>
+          </cell>
+          <cell r="P9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>0</v>
+          </cell>
+          <cell r="V9">
+            <v>0</v>
+          </cell>
+          <cell r="W9">
+            <v>0</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>0</v>
+          </cell>
+          <cell r="Z9">
+            <v>0</v>
+          </cell>
+          <cell r="AA9">
+            <v>0</v>
+          </cell>
+          <cell r="AB9">
+            <v>0</v>
+          </cell>
+          <cell r="AC9">
+            <v>0</v>
+          </cell>
+          <cell r="AD9">
+            <v>0</v>
+          </cell>
+          <cell r="AE9">
+            <v>0</v>
+          </cell>
+          <cell r="AF9">
+            <v>0</v>
+          </cell>
+          <cell r="AG9">
+            <v>0</v>
+          </cell>
+          <cell r="AH9">
+            <v>1419</v>
+          </cell>
+          <cell r="AJ9">
+            <v>313.75</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Antioquia_Edatel</v>
+          </cell>
+          <cell r="C10">
+            <v>318</v>
+          </cell>
+          <cell r="D10">
+            <v>303</v>
+          </cell>
+          <cell r="E10">
+            <v>282</v>
+          </cell>
+          <cell r="F10">
+            <v>65</v>
+          </cell>
+          <cell r="G10">
+            <v>132</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+          <cell r="N10">
+            <v>0</v>
+          </cell>
+          <cell r="O10">
+            <v>0</v>
+          </cell>
+          <cell r="P10">
+            <v>0</v>
+          </cell>
+          <cell r="Q10">
+            <v>0</v>
+          </cell>
+          <cell r="R10">
+            <v>0</v>
+          </cell>
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>0</v>
+          </cell>
+          <cell r="V10">
+            <v>0</v>
+          </cell>
+          <cell r="W10">
+            <v>0</v>
+          </cell>
+          <cell r="X10">
+            <v>0</v>
+          </cell>
+          <cell r="Y10">
+            <v>0</v>
+          </cell>
+          <cell r="Z10">
+            <v>0</v>
+          </cell>
+          <cell r="AA10">
+            <v>0</v>
+          </cell>
+          <cell r="AB10">
+            <v>0</v>
+          </cell>
+          <cell r="AC10">
+            <v>0</v>
+          </cell>
+          <cell r="AD10">
+            <v>0</v>
+          </cell>
+          <cell r="AE10">
+            <v>0</v>
+          </cell>
+          <cell r="AF10">
+            <v>0</v>
+          </cell>
+          <cell r="AG10">
+            <v>0</v>
+          </cell>
+          <cell r="AH10">
+            <v>1100</v>
+          </cell>
+          <cell r="AJ10">
+            <v>258.75</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Boyaca</v>
+          </cell>
+          <cell r="C11">
+            <v>18</v>
+          </cell>
+          <cell r="D11">
+            <v>11</v>
+          </cell>
+          <cell r="E11">
+            <v>12</v>
+          </cell>
+          <cell r="F11">
+            <v>3</v>
+          </cell>
+          <cell r="G11">
+            <v>12</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+          <cell r="N11">
+            <v>0</v>
+          </cell>
+          <cell r="O11">
+            <v>0</v>
+          </cell>
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="R11">
+            <v>0</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>0</v>
+          </cell>
+          <cell r="V11">
+            <v>0</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>0</v>
+          </cell>
+          <cell r="AA11">
+            <v>0</v>
+          </cell>
+          <cell r="AB11">
+            <v>0</v>
+          </cell>
+          <cell r="AC11">
+            <v>0</v>
+          </cell>
+          <cell r="AD11">
+            <v>0</v>
+          </cell>
+          <cell r="AE11">
+            <v>0</v>
+          </cell>
+          <cell r="AF11">
+            <v>0</v>
+          </cell>
+          <cell r="AG11">
+            <v>0</v>
+          </cell>
+          <cell r="AH11">
+            <v>56</v>
+          </cell>
+          <cell r="AI11">
+            <v>949</v>
+          </cell>
+          <cell r="AJ11">
+            <v>13.25</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Norte de Santander</v>
+          </cell>
+          <cell r="C12">
+            <v>39</v>
+          </cell>
+          <cell r="D12">
+            <v>42</v>
+          </cell>
+          <cell r="E12">
+            <v>42</v>
+          </cell>
+          <cell r="F12">
+            <v>11</v>
+          </cell>
+          <cell r="G12">
+            <v>28</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="N12">
+            <v>0</v>
+          </cell>
+          <cell r="O12">
+            <v>0</v>
+          </cell>
+          <cell r="P12">
+            <v>0</v>
+          </cell>
+          <cell r="Q12">
+            <v>0</v>
+          </cell>
+          <cell r="R12">
+            <v>0</v>
+          </cell>
+          <cell r="S12">
+            <v>0</v>
+          </cell>
+          <cell r="T12">
+            <v>0</v>
+          </cell>
+          <cell r="U12">
+            <v>0</v>
+          </cell>
+          <cell r="V12">
+            <v>0</v>
+          </cell>
+          <cell r="W12">
+            <v>0</v>
+          </cell>
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+          <cell r="AA12">
+            <v>0</v>
+          </cell>
+          <cell r="AB12">
+            <v>0</v>
+          </cell>
+          <cell r="AC12">
+            <v>0</v>
+          </cell>
+          <cell r="AD12">
+            <v>0</v>
+          </cell>
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+          <cell r="AG12">
+            <v>0</v>
+          </cell>
+          <cell r="AH12">
+            <v>162</v>
+          </cell>
+          <cell r="AJ12">
+            <v>37.75</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Santander</v>
+          </cell>
+          <cell r="C13">
+            <v>176</v>
+          </cell>
+          <cell r="D13">
+            <v>169</v>
+          </cell>
+          <cell r="E13">
+            <v>159</v>
+          </cell>
+          <cell r="F13">
+            <v>45</v>
+          </cell>
+          <cell r="G13">
+            <v>152</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+          <cell r="N13">
+            <v>0</v>
+          </cell>
+          <cell r="O13">
+            <v>0</v>
+          </cell>
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
+          <cell r="S13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
+          <cell r="U13">
+            <v>0</v>
+          </cell>
+          <cell r="V13">
+            <v>0</v>
+          </cell>
+          <cell r="W13">
+            <v>0</v>
+          </cell>
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+          <cell r="AA13">
+            <v>0</v>
+          </cell>
+          <cell r="AB13">
+            <v>0</v>
+          </cell>
+          <cell r="AC13">
+            <v>0</v>
+          </cell>
+          <cell r="AD13">
+            <v>0</v>
+          </cell>
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+          <cell r="AG13">
+            <v>0</v>
+          </cell>
+          <cell r="AH13">
+            <v>701</v>
+          </cell>
+          <cell r="AJ13">
+            <v>164</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Boyaca_Edatel</v>
+          </cell>
+          <cell r="C14">
+            <v>11</v>
+          </cell>
+          <cell r="D14">
+            <v>7</v>
+          </cell>
+          <cell r="E14">
+            <v>9</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+          <cell r="N14">
+            <v>0</v>
+          </cell>
+          <cell r="O14">
+            <v>0</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+          <cell r="Q14">
+            <v>0</v>
+          </cell>
+          <cell r="R14">
+            <v>0</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
+          <cell r="U14">
+            <v>0</v>
+          </cell>
+          <cell r="V14">
+            <v>0</v>
+          </cell>
+          <cell r="W14">
+            <v>0</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+          <cell r="Z14">
+            <v>0</v>
+          </cell>
+          <cell r="AA14">
+            <v>0</v>
+          </cell>
+          <cell r="AB14">
+            <v>0</v>
+          </cell>
+          <cell r="AC14">
+            <v>0</v>
+          </cell>
+          <cell r="AD14">
+            <v>0</v>
+          </cell>
+          <cell r="AE14">
+            <v>0</v>
+          </cell>
+          <cell r="AF14">
+            <v>0</v>
+          </cell>
+          <cell r="AG14">
+            <v>0</v>
+          </cell>
+          <cell r="AH14">
+            <v>28</v>
+          </cell>
+          <cell r="AJ14">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Santander_Edatel</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>2</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+          <cell r="N15">
+            <v>0</v>
+          </cell>
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15">
+            <v>0</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="U15">
+            <v>0</v>
+          </cell>
+          <cell r="V15">
+            <v>0</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+          <cell r="Z15">
+            <v>0</v>
+          </cell>
+          <cell r="AA15">
+            <v>0</v>
+          </cell>
+          <cell r="AB15">
+            <v>0</v>
+          </cell>
+          <cell r="AC15">
+            <v>0</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>0</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>0</v>
+          </cell>
+          <cell r="AH15">
+            <v>2</v>
+          </cell>
+          <cell r="AJ15">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Atlantico</v>
+          </cell>
+          <cell r="C16">
+            <v>126</v>
+          </cell>
+          <cell r="D16">
+            <v>134</v>
+          </cell>
+          <cell r="E16">
+            <v>148</v>
+          </cell>
+          <cell r="F16">
+            <v>35</v>
+          </cell>
+          <cell r="G16">
+            <v>125</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+          <cell r="N16">
+            <v>0</v>
+          </cell>
+          <cell r="O16">
+            <v>0</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>0</v>
+          </cell>
+          <cell r="S16">
+            <v>0</v>
+          </cell>
+          <cell r="T16">
+            <v>0</v>
+          </cell>
+          <cell r="U16">
+            <v>0</v>
+          </cell>
+          <cell r="V16">
+            <v>0</v>
+          </cell>
+          <cell r="W16">
+            <v>0</v>
+          </cell>
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+          <cell r="Z16">
+            <v>0</v>
+          </cell>
+          <cell r="AA16">
+            <v>0</v>
+          </cell>
+          <cell r="AB16">
+            <v>0</v>
+          </cell>
+          <cell r="AC16">
+            <v>0</v>
+          </cell>
+          <cell r="AD16">
+            <v>0</v>
+          </cell>
+          <cell r="AE16">
+            <v>0</v>
+          </cell>
+          <cell r="AF16">
+            <v>0</v>
+          </cell>
+          <cell r="AG16">
+            <v>0</v>
+          </cell>
+          <cell r="AH16">
+            <v>568</v>
+          </cell>
+          <cell r="AI16">
+            <v>2169</v>
+          </cell>
+          <cell r="AJ16">
+            <v>133.25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Bolivar</v>
+          </cell>
+          <cell r="C17">
+            <v>158</v>
+          </cell>
+          <cell r="D17">
+            <v>118</v>
+          </cell>
+          <cell r="E17">
+            <v>145</v>
+          </cell>
+          <cell r="F17">
+            <v>52</v>
+          </cell>
+          <cell r="G17">
+            <v>154</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+          <cell r="N17">
+            <v>0</v>
+          </cell>
+          <cell r="O17">
+            <v>0</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>0</v>
+          </cell>
+          <cell r="R17">
+            <v>0</v>
+          </cell>
+          <cell r="S17">
+            <v>0</v>
+          </cell>
+          <cell r="T17">
+            <v>0</v>
+          </cell>
+          <cell r="U17">
+            <v>0</v>
+          </cell>
+          <cell r="V17">
+            <v>0</v>
+          </cell>
+          <cell r="W17">
+            <v>0</v>
+          </cell>
+          <cell r="X17">
+            <v>0</v>
+          </cell>
+          <cell r="Y17">
+            <v>0</v>
+          </cell>
+          <cell r="Z17">
+            <v>0</v>
+          </cell>
+          <cell r="AA17">
+            <v>0</v>
+          </cell>
+          <cell r="AB17">
+            <v>0</v>
+          </cell>
+          <cell r="AC17">
+            <v>0</v>
+          </cell>
+          <cell r="AD17">
+            <v>0</v>
+          </cell>
+          <cell r="AE17">
+            <v>0</v>
+          </cell>
+          <cell r="AF17">
+            <v>0</v>
+          </cell>
+          <cell r="AG17">
+            <v>0</v>
+          </cell>
+          <cell r="AH17">
+            <v>627</v>
+          </cell>
+          <cell r="AJ17">
+            <v>143.75</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Magdalena</v>
+          </cell>
+          <cell r="C18">
+            <v>33</v>
+          </cell>
+          <cell r="D18">
+            <v>32</v>
+          </cell>
+          <cell r="E18">
+            <v>34</v>
+          </cell>
+          <cell r="F18">
+            <v>14</v>
+          </cell>
+          <cell r="G18">
+            <v>12</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+          <cell r="N18">
+            <v>0</v>
+          </cell>
+          <cell r="O18">
+            <v>0</v>
+          </cell>
+          <cell r="P18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>0</v>
+          </cell>
+          <cell r="S18">
+            <v>0</v>
+          </cell>
+          <cell r="T18">
+            <v>0</v>
+          </cell>
+          <cell r="U18">
+            <v>0</v>
+          </cell>
+          <cell r="V18">
+            <v>0</v>
+          </cell>
+          <cell r="W18">
+            <v>0</v>
+          </cell>
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>0</v>
+          </cell>
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+          <cell r="AA18">
+            <v>0</v>
+          </cell>
+          <cell r="AB18">
+            <v>0</v>
+          </cell>
+          <cell r="AC18">
+            <v>0</v>
+          </cell>
+          <cell r="AD18">
+            <v>0</v>
+          </cell>
+          <cell r="AE18">
+            <v>0</v>
+          </cell>
+          <cell r="AF18">
+            <v>0</v>
+          </cell>
+          <cell r="AG18">
+            <v>0</v>
+          </cell>
+          <cell r="AH18">
+            <v>125</v>
+          </cell>
+          <cell r="AJ18">
+            <v>27.75</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Cesar</v>
+          </cell>
+          <cell r="C19">
+            <v>46</v>
+          </cell>
+          <cell r="D19">
+            <v>55</v>
+          </cell>
+          <cell r="E19">
+            <v>56</v>
+          </cell>
+          <cell r="F19">
+            <v>29</v>
+          </cell>
+          <cell r="G19">
+            <v>41</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19">
+            <v>0</v>
+          </cell>
+          <cell r="S19">
+            <v>0</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
+          <cell r="U19">
+            <v>0</v>
+          </cell>
+          <cell r="V19">
+            <v>0</v>
+          </cell>
+          <cell r="W19">
+            <v>0</v>
+          </cell>
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>0</v>
+          </cell>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>0</v>
+          </cell>
+          <cell r="AB19">
+            <v>0</v>
+          </cell>
+          <cell r="AC19">
+            <v>0</v>
+          </cell>
+          <cell r="AD19">
+            <v>0</v>
+          </cell>
+          <cell r="AE19">
+            <v>0</v>
+          </cell>
+          <cell r="AF19">
+            <v>0</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>227</v>
+          </cell>
+          <cell r="AJ19">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Cordoba</v>
+          </cell>
+          <cell r="C20">
+            <v>38</v>
+          </cell>
+          <cell r="D20">
+            <v>26</v>
+          </cell>
+          <cell r="E20">
+            <v>32</v>
+          </cell>
+          <cell r="F20">
+            <v>15</v>
+          </cell>
+          <cell r="G20">
+            <v>26</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="K20">
+            <v>0</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+          <cell r="N20">
+            <v>0</v>
+          </cell>
+          <cell r="O20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20">
+            <v>0</v>
+          </cell>
+          <cell r="S20">
+            <v>0</v>
+          </cell>
+          <cell r="T20">
+            <v>0</v>
+          </cell>
+          <cell r="U20">
+            <v>0</v>
+          </cell>
+          <cell r="V20">
+            <v>0</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+          <cell r="AA20">
+            <v>0</v>
+          </cell>
+          <cell r="AB20">
+            <v>0</v>
+          </cell>
+          <cell r="AC20">
+            <v>0</v>
+          </cell>
+          <cell r="AD20">
+            <v>0</v>
+          </cell>
+          <cell r="AE20">
+            <v>0</v>
+          </cell>
+          <cell r="AF20">
+            <v>0</v>
+          </cell>
+          <cell r="AG20">
+            <v>0</v>
+          </cell>
+          <cell r="AH20">
+            <v>137</v>
+          </cell>
+          <cell r="AJ20">
+            <v>30.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Sucre</v>
+          </cell>
+          <cell r="C21">
+            <v>20</v>
+          </cell>
+          <cell r="D21">
+            <v>16</v>
+          </cell>
+          <cell r="E21">
+            <v>23</v>
+          </cell>
+          <cell r="F21">
+            <v>7</v>
+          </cell>
+          <cell r="G21">
+            <v>19</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+          <cell r="O21">
+            <v>0</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+          <cell r="S21">
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>0</v>
+          </cell>
+          <cell r="U21">
+            <v>0</v>
+          </cell>
+          <cell r="V21">
+            <v>0</v>
+          </cell>
+          <cell r="W21">
+            <v>0</v>
+          </cell>
+          <cell r="X21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>0</v>
+          </cell>
+          <cell r="AA21">
+            <v>0</v>
+          </cell>
+          <cell r="AB21">
+            <v>0</v>
+          </cell>
+          <cell r="AC21">
+            <v>0</v>
+          </cell>
+          <cell r="AD21">
+            <v>0</v>
+          </cell>
+          <cell r="AE21">
+            <v>0</v>
+          </cell>
+          <cell r="AF21">
+            <v>0</v>
+          </cell>
+          <cell r="AG21">
+            <v>0</v>
+          </cell>
+          <cell r="AH21">
+            <v>85</v>
+          </cell>
+          <cell r="AJ21">
+            <v>19.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Bolivar_Edatel</v>
+          </cell>
+          <cell r="C22">
+            <v>15</v>
+          </cell>
+          <cell r="D22">
+            <v>7</v>
+          </cell>
+          <cell r="E22">
+            <v>9</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>13</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
+          <cell r="M22">
+            <v>0</v>
+          </cell>
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+          <cell r="O22">
+            <v>0</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22">
+            <v>0</v>
+          </cell>
+          <cell r="S22">
+            <v>0</v>
+          </cell>
+          <cell r="T22">
+            <v>0</v>
+          </cell>
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+          <cell r="V22">
+            <v>0</v>
+          </cell>
+          <cell r="W22">
+            <v>0</v>
+          </cell>
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+          <cell r="AA22">
+            <v>0</v>
+          </cell>
+          <cell r="AB22">
+            <v>0</v>
+          </cell>
+          <cell r="AC22">
+            <v>0</v>
+          </cell>
+          <cell r="AD22">
+            <v>0</v>
+          </cell>
+          <cell r="AE22">
+            <v>0</v>
+          </cell>
+          <cell r="AF22">
+            <v>0</v>
+          </cell>
+          <cell r="AG22">
+            <v>0</v>
+          </cell>
+          <cell r="AH22">
+            <v>44</v>
+          </cell>
+          <cell r="AJ22">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Cesar_Edatel</v>
+          </cell>
+          <cell r="C23">
+            <v>32</v>
+          </cell>
+          <cell r="D23">
+            <v>33</v>
+          </cell>
+          <cell r="E23">
+            <v>31</v>
+          </cell>
+          <cell r="F23">
+            <v>16</v>
+          </cell>
+          <cell r="G23">
+            <v>10</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>0</v>
+          </cell>
+          <cell r="M23">
+            <v>0</v>
+          </cell>
+          <cell r="N23">
+            <v>0</v>
+          </cell>
+          <cell r="O23">
+            <v>0</v>
+          </cell>
+          <cell r="P23">
+            <v>0</v>
+          </cell>
+          <cell r="Q23">
+            <v>0</v>
+          </cell>
+          <cell r="R23">
+            <v>0</v>
+          </cell>
+          <cell r="S23">
+            <v>0</v>
+          </cell>
+          <cell r="T23">
+            <v>0</v>
+          </cell>
+          <cell r="U23">
+            <v>0</v>
+          </cell>
+          <cell r="V23">
+            <v>0</v>
+          </cell>
+          <cell r="W23">
+            <v>0</v>
+          </cell>
+          <cell r="X23">
+            <v>0</v>
+          </cell>
+          <cell r="Y23">
+            <v>0</v>
+          </cell>
+          <cell r="Z23">
+            <v>0</v>
+          </cell>
+          <cell r="AA23">
+            <v>0</v>
+          </cell>
+          <cell r="AB23">
+            <v>0</v>
+          </cell>
+          <cell r="AC23">
+            <v>0</v>
+          </cell>
+          <cell r="AD23">
+            <v>0</v>
+          </cell>
+          <cell r="AE23">
+            <v>0</v>
+          </cell>
+          <cell r="AF23">
+            <v>0</v>
+          </cell>
+          <cell r="AG23">
+            <v>0</v>
+          </cell>
+          <cell r="AH23">
+            <v>122</v>
+          </cell>
+          <cell r="AJ23">
+            <v>26.5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Cordoba_Edatel</v>
+          </cell>
+          <cell r="C24">
+            <v>42</v>
+          </cell>
+          <cell r="D24">
+            <v>57</v>
+          </cell>
+          <cell r="E24">
+            <v>56</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>35</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>0</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
+          <cell r="M24">
+            <v>0</v>
+          </cell>
+          <cell r="N24">
+            <v>0</v>
+          </cell>
+          <cell r="O24">
+            <v>0</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+          <cell r="Q24">
+            <v>0</v>
+          </cell>
+          <cell r="R24">
+            <v>0</v>
+          </cell>
+          <cell r="S24">
+            <v>0</v>
+          </cell>
+          <cell r="T24">
+            <v>0</v>
+          </cell>
+          <cell r="U24">
+            <v>0</v>
+          </cell>
+          <cell r="V24">
+            <v>0</v>
+          </cell>
+          <cell r="W24">
+            <v>0</v>
+          </cell>
+          <cell r="X24">
+            <v>0</v>
+          </cell>
+          <cell r="Y24">
+            <v>0</v>
+          </cell>
+          <cell r="Z24">
+            <v>0</v>
+          </cell>
+          <cell r="AA24">
+            <v>0</v>
+          </cell>
+          <cell r="AB24">
+            <v>0</v>
+          </cell>
+          <cell r="AC24">
+            <v>0</v>
+          </cell>
+          <cell r="AD24">
+            <v>0</v>
+          </cell>
+          <cell r="AE24">
+            <v>0</v>
+          </cell>
+          <cell r="AF24">
+            <v>0</v>
+          </cell>
+          <cell r="AG24">
+            <v>0</v>
+          </cell>
+          <cell r="AH24">
+            <v>190</v>
+          </cell>
+          <cell r="AJ24">
+            <v>47.5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Guajira</v>
+          </cell>
+          <cell r="C25">
+            <v>6</v>
+          </cell>
+          <cell r="D25">
+            <v>1</v>
+          </cell>
+          <cell r="E25">
+            <v>13</v>
+          </cell>
+          <cell r="F25">
+            <v>8</v>
+          </cell>
+          <cell r="G25">
+            <v>2</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>0</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+          <cell r="M25">
+            <v>0</v>
+          </cell>
+          <cell r="N25">
+            <v>0</v>
+          </cell>
+          <cell r="O25">
+            <v>0</v>
+          </cell>
+          <cell r="P25">
+            <v>0</v>
+          </cell>
+          <cell r="Q25">
+            <v>0</v>
+          </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+          <cell r="S25">
+            <v>0</v>
+          </cell>
+          <cell r="T25">
+            <v>0</v>
+          </cell>
+          <cell r="U25">
+            <v>0</v>
+          </cell>
+          <cell r="V25">
+            <v>0</v>
+          </cell>
+          <cell r="W25">
+            <v>0</v>
+          </cell>
+          <cell r="X25">
+            <v>0</v>
+          </cell>
+          <cell r="Y25">
+            <v>0</v>
+          </cell>
+          <cell r="Z25">
+            <v>0</v>
+          </cell>
+          <cell r="AA25">
+            <v>0</v>
+          </cell>
+          <cell r="AB25">
+            <v>0</v>
+          </cell>
+          <cell r="AC25">
+            <v>0</v>
+          </cell>
+          <cell r="AD25">
+            <v>0</v>
+          </cell>
+          <cell r="AE25">
+            <v>0</v>
+          </cell>
+          <cell r="AF25">
+            <v>0</v>
+          </cell>
+          <cell r="AG25">
+            <v>0</v>
+          </cell>
+          <cell r="AH25">
+            <v>30</v>
+          </cell>
+          <cell r="AJ25">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Sucre_Edatel</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26">
+            <v>8</v>
+          </cell>
+          <cell r="E26">
+            <v>2</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>0</v>
+          </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
+          <cell r="I26">
+            <v>0</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>0</v>
+          </cell>
+          <cell r="M26">
+            <v>0</v>
+          </cell>
+          <cell r="N26">
+            <v>0</v>
+          </cell>
+          <cell r="O26">
+            <v>0</v>
+          </cell>
+          <cell r="P26">
+            <v>0</v>
+          </cell>
+          <cell r="Q26">
+            <v>0</v>
+          </cell>
+          <cell r="R26">
+            <v>0</v>
+          </cell>
+          <cell r="S26">
+            <v>0</v>
+          </cell>
+          <cell r="T26">
+            <v>0</v>
+          </cell>
+          <cell r="U26">
+            <v>0</v>
+          </cell>
+          <cell r="V26">
+            <v>0</v>
+          </cell>
+          <cell r="W26">
+            <v>0</v>
+          </cell>
+          <cell r="X26">
+            <v>0</v>
+          </cell>
+          <cell r="Y26">
+            <v>0</v>
+          </cell>
+          <cell r="Z26">
+            <v>0</v>
+          </cell>
+          <cell r="AA26">
+            <v>0</v>
+          </cell>
+          <cell r="AB26">
+            <v>0</v>
+          </cell>
+          <cell r="AC26">
+            <v>0</v>
+          </cell>
+          <cell r="AD26">
+            <v>0</v>
+          </cell>
+          <cell r="AE26">
+            <v>0</v>
+          </cell>
+          <cell r="AF26">
+            <v>0</v>
+          </cell>
+          <cell r="AG26">
+            <v>0</v>
+          </cell>
+          <cell r="AH26">
+            <v>14</v>
+          </cell>
+          <cell r="AJ26">
+            <v>3.5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Bogota</v>
+          </cell>
+          <cell r="C27">
+            <v>237</v>
+          </cell>
+          <cell r="D27">
+            <v>188</v>
+          </cell>
+          <cell r="E27">
+            <v>225</v>
+          </cell>
+          <cell r="F27">
+            <v>136</v>
+          </cell>
+          <cell r="G27">
+            <v>202</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+          <cell r="M27">
+            <v>0</v>
+          </cell>
+          <cell r="N27">
+            <v>0</v>
+          </cell>
+          <cell r="O27">
+            <v>0</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>0</v>
+          </cell>
+          <cell r="S27">
+            <v>0</v>
+          </cell>
+          <cell r="T27">
+            <v>0</v>
+          </cell>
+          <cell r="U27">
+            <v>0</v>
+          </cell>
+          <cell r="V27">
+            <v>0</v>
+          </cell>
+          <cell r="W27">
+            <v>0</v>
+          </cell>
+          <cell r="X27">
+            <v>0</v>
+          </cell>
+          <cell r="Y27">
+            <v>0</v>
+          </cell>
+          <cell r="Z27">
+            <v>0</v>
+          </cell>
+          <cell r="AA27">
+            <v>0</v>
+          </cell>
+          <cell r="AB27">
+            <v>0</v>
+          </cell>
+          <cell r="AC27">
+            <v>0</v>
+          </cell>
+          <cell r="AD27">
+            <v>0</v>
+          </cell>
+          <cell r="AE27">
+            <v>0</v>
+          </cell>
+          <cell r="AF27">
+            <v>0</v>
+          </cell>
+          <cell r="AG27">
+            <v>0</v>
+          </cell>
+          <cell r="AH27">
+            <v>988</v>
+          </cell>
+          <cell r="AI27">
+            <v>1008</v>
+          </cell>
+          <cell r="AJ27">
+            <v>213</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Cundinamarca</v>
+          </cell>
+          <cell r="C28">
+            <v>6</v>
+          </cell>
+          <cell r="D28">
+            <v>4</v>
+          </cell>
+          <cell r="E28">
+            <v>6</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>4</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>0</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28">
+            <v>0</v>
+          </cell>
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+          <cell r="O28">
+            <v>0</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="Q28">
+            <v>0</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+          <cell r="S28">
+            <v>0</v>
+          </cell>
+          <cell r="T28">
+            <v>0</v>
+          </cell>
+          <cell r="U28">
+            <v>0</v>
+          </cell>
+          <cell r="V28">
+            <v>0</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+          <cell r="Z28">
+            <v>0</v>
+          </cell>
+          <cell r="AA28">
+            <v>0</v>
+          </cell>
+          <cell r="AB28">
+            <v>0</v>
+          </cell>
+          <cell r="AC28">
+            <v>0</v>
+          </cell>
+          <cell r="AD28">
+            <v>0</v>
+          </cell>
+          <cell r="AE28">
+            <v>0</v>
+          </cell>
+          <cell r="AF28">
+            <v>0</v>
+          </cell>
+          <cell r="AG28">
+            <v>0</v>
+          </cell>
+          <cell r="AH28">
+            <v>20</v>
+          </cell>
+          <cell r="AJ28">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Meta</v>
+          </cell>
+          <cell r="C29">
+            <v>18</v>
+          </cell>
+          <cell r="D29">
+            <v>14</v>
+          </cell>
+          <cell r="E29">
+            <v>27</v>
+          </cell>
+          <cell r="F29">
+            <v>10</v>
+          </cell>
+          <cell r="G29">
+            <v>21</v>
+          </cell>
+          <cell r="H29">
+            <v>0</v>
+          </cell>
+          <cell r="I29">
+            <v>0</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="K29">
+            <v>0</v>
+          </cell>
+          <cell r="L29">
+            <v>0</v>
+          </cell>
+          <cell r="M29">
+            <v>0</v>
+          </cell>
+          <cell r="N29">
+            <v>0</v>
+          </cell>
+          <cell r="O29">
+            <v>0</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+          <cell r="S29">
+            <v>0</v>
+          </cell>
+          <cell r="T29">
+            <v>0</v>
+          </cell>
+          <cell r="U29">
+            <v>0</v>
+          </cell>
+          <cell r="V29">
+            <v>0</v>
+          </cell>
+          <cell r="W29">
+            <v>0</v>
+          </cell>
+          <cell r="X29">
+            <v>0</v>
+          </cell>
+          <cell r="Y29">
+            <v>0</v>
+          </cell>
+          <cell r="Z29">
+            <v>0</v>
+          </cell>
+          <cell r="AA29">
+            <v>0</v>
+          </cell>
+          <cell r="AB29">
+            <v>0</v>
+          </cell>
+          <cell r="AC29">
+            <v>0</v>
+          </cell>
+          <cell r="AD29">
+            <v>0</v>
+          </cell>
+          <cell r="AE29">
+            <v>0</v>
+          </cell>
+          <cell r="AF29">
+            <v>0</v>
+          </cell>
+          <cell r="AG29">
+            <v>0</v>
+          </cell>
+          <cell r="AH29">
+            <v>90</v>
+          </cell>
+          <cell r="AI29">
+            <v>1983</v>
+          </cell>
+          <cell r="AJ29">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Valle</v>
+          </cell>
+          <cell r="C30">
+            <v>136</v>
+          </cell>
+          <cell r="D30">
+            <v>114</v>
+          </cell>
+          <cell r="E30">
+            <v>138</v>
+          </cell>
+          <cell r="F30">
+            <v>28</v>
+          </cell>
+          <cell r="G30">
+            <v>129</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>0</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="K30">
+            <v>0</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="M30">
+            <v>0</v>
+          </cell>
+          <cell r="N30">
+            <v>0</v>
+          </cell>
+          <cell r="O30">
+            <v>0</v>
+          </cell>
+          <cell r="P30">
+            <v>0</v>
+          </cell>
+          <cell r="Q30">
+            <v>0</v>
+          </cell>
+          <cell r="R30">
+            <v>0</v>
+          </cell>
+          <cell r="S30">
+            <v>0</v>
+          </cell>
+          <cell r="T30">
+            <v>0</v>
+          </cell>
+          <cell r="U30">
+            <v>0</v>
+          </cell>
+          <cell r="V30">
+            <v>0</v>
+          </cell>
+          <cell r="W30">
+            <v>0</v>
+          </cell>
+          <cell r="X30">
+            <v>0</v>
+          </cell>
+          <cell r="Y30">
+            <v>0</v>
+          </cell>
+          <cell r="Z30">
+            <v>0</v>
+          </cell>
+          <cell r="AA30">
+            <v>0</v>
+          </cell>
+          <cell r="AB30">
+            <v>0</v>
+          </cell>
+          <cell r="AC30">
+            <v>0</v>
+          </cell>
+          <cell r="AD30">
+            <v>0</v>
+          </cell>
+          <cell r="AE30">
+            <v>0</v>
+          </cell>
+          <cell r="AF30">
+            <v>0</v>
+          </cell>
+          <cell r="AG30">
+            <v>0</v>
+          </cell>
+          <cell r="AH30">
+            <v>545</v>
+          </cell>
+          <cell r="AJ30">
+            <v>129.25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Cauca</v>
+          </cell>
+          <cell r="C31">
+            <v>15</v>
+          </cell>
+          <cell r="D31">
+            <v>13</v>
+          </cell>
+          <cell r="E31">
+            <v>17</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>7</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+          <cell r="M31">
+            <v>0</v>
+          </cell>
+          <cell r="N31">
+            <v>0</v>
+          </cell>
+          <cell r="O31">
+            <v>0</v>
+          </cell>
+          <cell r="P31">
+            <v>0</v>
+          </cell>
+          <cell r="Q31">
+            <v>0</v>
+          </cell>
+          <cell r="R31">
+            <v>0</v>
+          </cell>
+          <cell r="S31">
+            <v>0</v>
+          </cell>
+          <cell r="T31">
+            <v>0</v>
+          </cell>
+          <cell r="U31">
+            <v>0</v>
+          </cell>
+          <cell r="V31">
+            <v>0</v>
+          </cell>
+          <cell r="W31">
+            <v>0</v>
+          </cell>
+          <cell r="X31">
+            <v>0</v>
+          </cell>
+          <cell r="Y31">
+            <v>0</v>
+          </cell>
+          <cell r="Z31">
+            <v>0</v>
+          </cell>
+          <cell r="AA31">
+            <v>0</v>
+          </cell>
+          <cell r="AB31">
+            <v>0</v>
+          </cell>
+          <cell r="AC31">
+            <v>0</v>
+          </cell>
+          <cell r="AD31">
+            <v>0</v>
+          </cell>
+          <cell r="AE31">
+            <v>0</v>
+          </cell>
+          <cell r="AF31">
+            <v>0</v>
+          </cell>
+          <cell r="AG31">
+            <v>0</v>
+          </cell>
+          <cell r="AH31">
+            <v>52</v>
+          </cell>
+          <cell r="AJ31">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Nariño</v>
+          </cell>
+          <cell r="C32">
+            <v>11</v>
+          </cell>
+          <cell r="D32">
+            <v>13</v>
+          </cell>
+          <cell r="E32">
+            <v>11</v>
+          </cell>
+          <cell r="F32">
+            <v>3</v>
+          </cell>
+          <cell r="G32">
+            <v>7</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>0</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="M32">
+            <v>0</v>
+          </cell>
+          <cell r="N32">
+            <v>0</v>
+          </cell>
+          <cell r="O32">
+            <v>0</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+          <cell r="Q32">
+            <v>0</v>
+          </cell>
+          <cell r="R32">
+            <v>0</v>
+          </cell>
+          <cell r="S32">
+            <v>0</v>
+          </cell>
+          <cell r="T32">
+            <v>0</v>
+          </cell>
+          <cell r="U32">
+            <v>0</v>
+          </cell>
+          <cell r="V32">
+            <v>0</v>
+          </cell>
+          <cell r="W32">
+            <v>0</v>
+          </cell>
+          <cell r="X32">
+            <v>0</v>
+          </cell>
+          <cell r="Y32">
+            <v>0</v>
+          </cell>
+          <cell r="Z32">
+            <v>0</v>
+          </cell>
+          <cell r="AA32">
+            <v>0</v>
+          </cell>
+          <cell r="AB32">
+            <v>0</v>
+          </cell>
+          <cell r="AC32">
+            <v>0</v>
+          </cell>
+          <cell r="AD32">
+            <v>0</v>
+          </cell>
+          <cell r="AE32">
+            <v>0</v>
+          </cell>
+          <cell r="AF32">
+            <v>0</v>
+          </cell>
+          <cell r="AG32">
+            <v>0</v>
+          </cell>
+          <cell r="AH32">
+            <v>45</v>
+          </cell>
+          <cell r="AJ32">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Caldas</v>
+          </cell>
+          <cell r="C33">
+            <v>84</v>
+          </cell>
+          <cell r="D33">
+            <v>69</v>
+          </cell>
+          <cell r="E33">
+            <v>75</v>
+          </cell>
+          <cell r="F33">
+            <v>30</v>
+          </cell>
+          <cell r="G33">
+            <v>67</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
+          </cell>
+          <cell r="I33">
+            <v>0</v>
+          </cell>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="M33">
+            <v>0</v>
+          </cell>
+          <cell r="N33">
+            <v>0</v>
+          </cell>
+          <cell r="O33">
+            <v>0</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+          <cell r="Q33">
+            <v>0</v>
+          </cell>
+          <cell r="R33">
+            <v>0</v>
+          </cell>
+          <cell r="S33">
+            <v>0</v>
+          </cell>
+          <cell r="T33">
+            <v>0</v>
+          </cell>
+          <cell r="U33">
+            <v>0</v>
+          </cell>
+          <cell r="V33">
+            <v>0</v>
+          </cell>
+          <cell r="W33">
+            <v>0</v>
+          </cell>
+          <cell r="X33">
+            <v>0</v>
+          </cell>
+          <cell r="Y33">
+            <v>0</v>
+          </cell>
+          <cell r="Z33">
+            <v>0</v>
+          </cell>
+          <cell r="AA33">
+            <v>0</v>
+          </cell>
+          <cell r="AB33">
+            <v>0</v>
+          </cell>
+          <cell r="AC33">
+            <v>0</v>
+          </cell>
+          <cell r="AD33">
+            <v>0</v>
+          </cell>
+          <cell r="AE33">
+            <v>0</v>
+          </cell>
+          <cell r="AF33">
+            <v>0</v>
+          </cell>
+          <cell r="AG33">
+            <v>0</v>
+          </cell>
+          <cell r="AH33">
+            <v>325</v>
+          </cell>
+          <cell r="AJ33">
+            <v>73.75</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Quindio</v>
+          </cell>
+          <cell r="C34">
+            <v>45</v>
+          </cell>
+          <cell r="D34">
+            <v>42</v>
+          </cell>
+          <cell r="E34">
+            <v>32</v>
+          </cell>
+          <cell r="F34">
+            <v>16</v>
+          </cell>
+          <cell r="G34">
+            <v>39</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>0</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
+          <cell r="M34">
+            <v>0</v>
+          </cell>
+          <cell r="N34">
+            <v>0</v>
+          </cell>
+          <cell r="O34">
+            <v>0</v>
+          </cell>
+          <cell r="P34">
+            <v>0</v>
+          </cell>
+          <cell r="Q34">
+            <v>0</v>
+          </cell>
+          <cell r="R34">
+            <v>0</v>
+          </cell>
+          <cell r="S34">
+            <v>0</v>
+          </cell>
+          <cell r="T34">
+            <v>0</v>
+          </cell>
+          <cell r="U34">
+            <v>0</v>
+          </cell>
+          <cell r="V34">
+            <v>0</v>
+          </cell>
+          <cell r="W34">
+            <v>0</v>
+          </cell>
+          <cell r="X34">
+            <v>0</v>
+          </cell>
+          <cell r="Y34">
+            <v>0</v>
+          </cell>
+          <cell r="Z34">
+            <v>0</v>
+          </cell>
+          <cell r="AA34">
+            <v>0</v>
+          </cell>
+          <cell r="AB34">
+            <v>0</v>
+          </cell>
+          <cell r="AC34">
+            <v>0</v>
+          </cell>
+          <cell r="AD34">
+            <v>0</v>
+          </cell>
+          <cell r="AE34">
+            <v>0</v>
+          </cell>
+          <cell r="AF34">
+            <v>0</v>
+          </cell>
+          <cell r="AG34">
+            <v>0</v>
+          </cell>
+          <cell r="AH34">
+            <v>174</v>
+          </cell>
+          <cell r="AJ34">
+            <v>39.5</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Risaralda</v>
+          </cell>
+          <cell r="C35">
+            <v>126</v>
+          </cell>
+          <cell r="D35">
+            <v>127</v>
+          </cell>
+          <cell r="E35">
+            <v>77</v>
+          </cell>
+          <cell r="F35">
+            <v>26</v>
+          </cell>
+          <cell r="G35">
+            <v>123</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+          <cell r="L35">
+            <v>0</v>
+          </cell>
+          <cell r="M35">
+            <v>0</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
+            <v>0</v>
+          </cell>
+          <cell r="Q35">
+            <v>0</v>
+          </cell>
+          <cell r="R35">
+            <v>0</v>
+          </cell>
+          <cell r="S35">
+            <v>0</v>
+          </cell>
+          <cell r="T35">
+            <v>0</v>
+          </cell>
+          <cell r="U35">
+            <v>0</v>
+          </cell>
+          <cell r="V35">
+            <v>0</v>
+          </cell>
+          <cell r="W35">
+            <v>0</v>
+          </cell>
+          <cell r="X35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>0</v>
+          </cell>
+          <cell r="Z35">
+            <v>0</v>
+          </cell>
+          <cell r="AA35">
+            <v>0</v>
+          </cell>
+          <cell r="AB35">
+            <v>0</v>
+          </cell>
+          <cell r="AC35">
+            <v>0</v>
+          </cell>
+          <cell r="AD35">
+            <v>0</v>
+          </cell>
+          <cell r="AE35">
+            <v>0</v>
+          </cell>
+          <cell r="AF35">
+            <v>0</v>
+          </cell>
+          <cell r="AG35">
+            <v>0</v>
+          </cell>
+          <cell r="AH35">
+            <v>479</v>
+          </cell>
+          <cell r="AJ35">
+            <v>113.25</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Valle Quindío</v>
+          </cell>
+          <cell r="C36">
+            <v>30</v>
+          </cell>
+          <cell r="D36">
+            <v>44</v>
+          </cell>
+          <cell r="E36">
+            <v>27</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+          <cell r="G36">
+            <v>26</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
+            <v>0</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="K36">
+            <v>0</v>
+          </cell>
+          <cell r="L36">
+            <v>0</v>
+          </cell>
+          <cell r="M36">
+            <v>0</v>
+          </cell>
+          <cell r="N36">
+            <v>0</v>
+          </cell>
+          <cell r="O36">
+            <v>0</v>
+          </cell>
+          <cell r="P36">
+            <v>0</v>
+          </cell>
+          <cell r="Q36">
+            <v>0</v>
+          </cell>
+          <cell r="R36">
+            <v>0</v>
+          </cell>
+          <cell r="S36">
+            <v>0</v>
+          </cell>
+          <cell r="T36">
+            <v>0</v>
+          </cell>
+          <cell r="U36">
+            <v>0</v>
+          </cell>
+          <cell r="V36">
+            <v>0</v>
+          </cell>
+          <cell r="W36">
+            <v>0</v>
+          </cell>
+          <cell r="X36">
+            <v>0</v>
+          </cell>
+          <cell r="Y36">
+            <v>0</v>
+          </cell>
+          <cell r="Z36">
+            <v>0</v>
+          </cell>
+          <cell r="AA36">
+            <v>0</v>
+          </cell>
+          <cell r="AB36">
+            <v>0</v>
+          </cell>
+          <cell r="AC36">
+            <v>0</v>
+          </cell>
+          <cell r="AD36">
+            <v>0</v>
+          </cell>
+          <cell r="AE36">
+            <v>0</v>
+          </cell>
+          <cell r="AF36">
+            <v>0</v>
+          </cell>
+          <cell r="AG36">
+            <v>0</v>
+          </cell>
+          <cell r="AH36">
+            <v>127</v>
+          </cell>
+          <cell r="AJ36">
+            <v>31.75</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Tolima</v>
+          </cell>
+          <cell r="C37">
+            <v>44</v>
+          </cell>
+          <cell r="D37">
+            <v>46</v>
+          </cell>
+          <cell r="E37">
+            <v>30</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>26</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="K37">
+            <v>0</v>
+          </cell>
+          <cell r="L37">
+            <v>0</v>
+          </cell>
+          <cell r="M37">
+            <v>0</v>
+          </cell>
+          <cell r="N37">
+            <v>0</v>
+          </cell>
+          <cell r="O37">
+            <v>0</v>
+          </cell>
+          <cell r="P37">
+            <v>0</v>
+          </cell>
+          <cell r="Q37">
+            <v>0</v>
+          </cell>
+          <cell r="R37">
+            <v>0</v>
+          </cell>
+          <cell r="S37">
+            <v>0</v>
+          </cell>
+          <cell r="T37">
+            <v>0</v>
+          </cell>
+          <cell r="U37">
+            <v>0</v>
+          </cell>
+          <cell r="V37">
+            <v>0</v>
+          </cell>
+          <cell r="W37">
+            <v>0</v>
+          </cell>
+          <cell r="X37">
+            <v>0</v>
+          </cell>
+          <cell r="Y37">
+            <v>0</v>
+          </cell>
+          <cell r="Z37">
+            <v>0</v>
+          </cell>
+          <cell r="AA37">
+            <v>0</v>
+          </cell>
+          <cell r="AB37">
+            <v>0</v>
+          </cell>
+          <cell r="AC37">
+            <v>0</v>
+          </cell>
+          <cell r="AD37">
+            <v>0</v>
+          </cell>
+          <cell r="AE37">
+            <v>0</v>
+          </cell>
+          <cell r="AF37">
+            <v>0</v>
+          </cell>
+          <cell r="AG37">
+            <v>0</v>
+          </cell>
+          <cell r="AH37">
+            <v>146</v>
+          </cell>
+          <cell r="AJ37">
+            <v>36.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,20 +5171,20 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -659,22 +5220,28 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7" cm="1">
+        <f t="array" ref="C2:C33">IFERROR(VLOOKUP($B$2:$B$33,'[1]Resumen Proy'!$J$5:$L$37,3,0),0)</f>
         <v>407.06534137064295</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7" cm="1">
+        <f t="array" ref="D2:D33">IFERROR(VLOOKUP($B$2:$B$33,'[1]Resumen Proy'!$J$5:$L$37,2,0),0)</f>
         <v>42.557898227992041</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
+        <f>SUM(C2:D2)</f>
         <v>449.623239598635</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7" cm="1">
+        <f t="array" ref="F2:F33">IFERROR(VLOOKUP($B$2:$B$33,'[1]Resumen Proy'!$A$146:$D$181,4,0),0)</f>
         <v>242</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7" cm="1">
+        <f t="array" ref="G2:G33">IFERROR(VLOOKUP($B$2:$B$33,'[1]Resumen Proy'!$A$69:$D$98,4,0),0)</f>
         <v>23</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="9" cm="1">
+        <f t="array" ref="H2:H33">IFERROR(VLOOKUP($B$2:$B$33,[2]InformeXregion!$B$6:$AJ$37,35,0),0)</f>
         <v>333.75</v>
       </c>
     </row>
@@ -685,19 +5252,20 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>496.60832955551012</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>50.982430756510951</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E33" si="0">SUM(C3:D3)</f>
         <v>547.59076031202108</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>279</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>7</v>
       </c>
       <c r="H3" s="9">
@@ -711,19 +5279,20 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>58.455532994923857</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>92.477657004830917</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>150.93318999975477</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>34</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>6</v>
       </c>
       <c r="H4" s="9">
@@ -737,19 +5306,20 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>313.9543593322864</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>48.70109819121447</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>362.6554575235009</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>182</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>17</v>
       </c>
       <c r="H5" s="9">
@@ -763,19 +5333,20 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>117.85182431882217</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>8.8956714761376254</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>126.74749579495979</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>35</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="9">
@@ -789,19 +5360,20 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>50.109090909090909</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>50.109090909090909</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>13</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="10">
@@ -815,19 +5387,20 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>65.43150684931507</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>19.886792452830189</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>85.318299302145263</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>4</v>
       </c>
       <c r="H8" s="10">
@@ -841,19 +5414,20 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>306.71748878923768</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>316.71748878923768</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>92</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
       <c r="H9" s="10">
@@ -867,19 +5441,20 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="10">
@@ -893,19 +5468,20 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="10">
@@ -919,19 +5495,20 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>344.99654576856648</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>23.561643835616437</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>368.55818960418293</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>64</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>9</v>
       </c>
       <c r="H12" s="9">
@@ -945,19 +5522,20 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>276.50280898876406</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>30.097345132743364</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>306.60015412150744</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>66</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>6</v>
       </c>
       <c r="H13" s="9">
@@ -971,19 +5549,20 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>94.8</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>97.8</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="9">
@@ -997,19 +5576,20 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>125.72435897435898</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>126.72435897435898</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>16</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="9">
@@ -1023,19 +5603,20 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>123.26315789473685</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>16</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
         <v>139.26315789473685</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="9">
@@ -1049,19 +5630,20 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>106.13777777777779</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>5.25</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
         <v>111.38777777777779</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>9</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="9">
@@ -1075,19 +5657,20 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="9">
@@ -1101,19 +5684,20 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="9">
@@ -1127,19 +5711,20 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="9">
@@ -1153,19 +5738,20 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>22.5</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="9">
@@ -1179,19 +5765,20 @@
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22" s="9">
@@ -1205,19 +5792,20 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>516.92261457550717</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>33.045871559633028</v>
       </c>
       <c r="E23" s="7">
+        <f t="shared" si="0"/>
         <v>549.96848613514021</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>132</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>14</v>
       </c>
       <c r="H23" s="10">
@@ -1231,19 +5819,20 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>80.157480314960637</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="7">
+        <f t="shared" si="0"/>
         <v>80.157480314960637</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>16</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="10">
@@ -1257,19 +5846,20 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>59.888888888888886</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>10.90909090909091</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
         <v>70.797979797979792</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>10</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="9">
@@ -1283,19 +5873,20 @@
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>325.01438848920861</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>8.25</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
         <v>333.26438848920861</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>73</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>7</v>
       </c>
       <c r="H26" s="9">
@@ -1309,19 +5900,20 @@
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>49.638554216867469</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
         <v>49.638554216867469</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>11</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0</v>
       </c>
       <c r="H27" s="9">
@@ -1335,19 +5927,20 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>25</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>0</v>
       </c>
       <c r="H28" s="9">
@@ -1361,19 +5954,20 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>153.11904761904762</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
         <v>154.11904761904762</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>81</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>4</v>
       </c>
       <c r="H29" s="9">
@@ -1387,19 +5981,20 @@
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>115.85148514851485</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
         <v>115.85148514851485</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>40</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>3</v>
       </c>
       <c r="H30" s="9">
@@ -1413,19 +6008,20 @@
       <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>194.901185770751</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>17</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
         <v>211.901185770751</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>99</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>10</v>
       </c>
       <c r="H31" s="9">
@@ -1439,19 +6035,20 @@
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>71.593220338983045</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
         <v>71.593220338983045</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>30</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="9">
@@ -1465,19 +6062,20 @@
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>52.633802816901408</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>31</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
         <v>83.633802816901408</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>27</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>0</v>
       </c>
       <c r="H33" s="9">
@@ -1485,12 +6083,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
